--- a/xlsx-templates/travel-10.xlsx
+++ b/xlsx-templates/travel-10.xlsx
@@ -15,6 +15,9 @@
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
     <sheet name="费用报销单" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">差旅费报销单!$C$4:$W$25</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -702,10 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+      <selection activeCell="C23" sqref="C4:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1473,8 +1479,9 @@
     <mergeCell ref="U6:U7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="512" orientation="landscape"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="28" scale="80" orientation="landscape"/>
 </worksheet>
 </file>
 

--- a/xlsx-templates/travel-10.xlsx
+++ b/xlsx-templates/travel-10.xlsx
@@ -16,7 +16,7 @@
     <sheet name="费用报销单" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">差旅费报销单!$C$4:$W$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">差旅费报销单!$C$1:$W$25</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -389,6 +389,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,30 +411,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C4:W25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -720,249 +720,249 @@
     <col min="3" max="8" width="2.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="22" width="4.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13" max="23" width="8.1640625" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="15" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="17"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="13" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="17"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="17"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -984,11 +984,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="17"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1010,11 +1010,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="17"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1036,11 +1036,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="17"/>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1062,11 +1062,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="17"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1088,11 +1088,11 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="17"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1114,11 +1114,11 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
-      <c r="X13" s="17"/>
+      <c r="X13" s="11"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1140,11 +1140,11 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="17"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1166,11 +1166,11 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
-      <c r="X15" s="17"/>
+      <c r="X15" s="11"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1192,11 +1192,11 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="17"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1218,24 +1218,24 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="17"/>
+      <c r="X17" s="11"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1246,205 +1246,216 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="17"/>
+      <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="15" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="17"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="17"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
       <c r="X23" s="2"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
       <c r="X25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:A25"/>
+    <mergeCell ref="B1:B25"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C23:W25"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C19:W19"/>
+    <mergeCell ref="C20:W20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:W22"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -1461,27 +1472,16 @@
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A1:A25"/>
-    <mergeCell ref="B1:B25"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
-    <mergeCell ref="C23:W25"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C19:W19"/>
-    <mergeCell ref="C20:W20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:W22"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="28" scale="80" orientation="landscape"/>
+  <pageSetup paperSize="28" scale="70" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1504,69 +1504,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="18"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1594,8 +1594,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="18"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1610,8 +1610,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="18"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1626,8 +1626,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="18"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1642,14 +1642,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1660,89 +1660,95 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="18"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="18" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="18"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1752,12 +1758,6 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>
